--- a/biology/Botanique/Orobanche_du_lierre/Orobanche_du_lierre.xlsx
+++ b/biology/Botanique/Orobanche_du_lierre/Orobanche_du_lierre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orobanche hederae
 L'Orobanche du lierre (Orobanche hederae) est une plante à fleurs de la famille des Orobanchaceae.
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-Organes reproducteurs
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : bleu, blanc
 Période de floraison : juin-août
 Inflorescence : épi simple
@@ -558,9 +575,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médecin grec Dioscorides écrit que la plante, appelée Οροβαχνη, peut être consommée crue ou cuite comme des asperges et signale que la cuisson de la plante avec des légumineuses fait cuire les légumineuses plus rapidement. Bien que Dioscoride ne donne pas d'informations médicinales dans sa description, les folklores russe et nordique décrivent tous deux la plante comme hautement médicinale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médecin grec Dioscorides écrit que la plante, appelée Οροβαχνη, peut être consommée crue ou cuite comme des asperges et signale que la cuisson de la plante avec des légumineuses fait cuire les légumineuses plus rapidement. Bien que Dioscoride ne donne pas d'informations médicinales dans sa description, les folklores russe et nordique décrivent tous deux la plante comme hautement médicinale.
 </t>
         </is>
       </c>
